--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\except_system_files\laragon\www\tashidelek\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BFD2B-D627-4D39-8138-9D3F6423EA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C4086-85DD-4406-9794-6D7345139BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="2244" windowWidth="19812" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="239">
   <si>
     <t>menu</t>
   </si>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122:F129"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1306,8 +1306,8 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1431,8 +1431,8 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
+      <c r="D7" s="14">
+        <v>11.5</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>36</v>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="265">
   <si>
     <t>menu</t>
   </si>
@@ -746,9 +746,15 @@
     <t>Starters</t>
   </si>
   <si>
+    <t>starters.webp</t>
+  </si>
+  <si>
     <t>Entrees Vegeterian</t>
   </si>
   <si>
+    <t>entrees-vegeterian.webp</t>
+  </si>
+  <si>
     <t>Entrees Non Vegeterian</t>
   </si>
   <si>
@@ -773,22 +779,34 @@
     <t>Chowmin</t>
   </si>
   <si>
+    <t>chowmin.webp</t>
+  </si>
+  <si>
     <t>Fried Rice</t>
   </si>
   <si>
     <t>Tandoori</t>
   </si>
   <si>
+    <t>tandoori.webp</t>
+  </si>
+  <si>
     <t>Laphing</t>
   </si>
   <si>
     <t>Side Orders</t>
   </si>
   <si>
+    <t>side-orders.webp</t>
+  </si>
+  <si>
     <t>Desserts</t>
   </si>
   <si>
     <t>Beverages</t>
+  </si>
+  <si>
+    <t>beverages.webp</t>
   </si>
 </sst>
 </file>
@@ -3823,13 +3841,19 @@
       <c r="A2" s="34" t="s">
         <v>243</v>
       </c>
+      <c r="C2" s="34" t="s">
+        <v>244</v>
+      </c>
       <c r="F2" s="34">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="F3" s="34">
         <v>2.0</v>
@@ -3837,7 +3861,7 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F4" s="34">
         <v>3.0</v>
@@ -3845,7 +3869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F5" s="34">
         <v>4.0</v>
@@ -3853,7 +3877,7 @@
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F6" s="34">
         <v>5.0</v>
@@ -3861,7 +3885,7 @@
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="34">
         <v>6.0</v>
@@ -3869,7 +3893,7 @@
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F8" s="34">
         <v>7.0</v>
@@ -3877,7 +3901,7 @@
     </row>
     <row r="9">
       <c r="A9" s="34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F9" s="34">
         <v>8.0</v>
@@ -3885,7 +3909,7 @@
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10" s="34">
         <v>9.0</v>
@@ -3893,7 +3917,10 @@
     </row>
     <row r="11">
       <c r="A11" s="34" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>255</v>
       </c>
       <c r="F11" s="34">
         <v>10.0</v>
@@ -3901,7 +3928,7 @@
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F12" s="34">
         <v>11.0</v>
@@ -3909,7 +3936,10 @@
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="F13" s="34">
         <v>12.0</v>
@@ -3917,7 +3947,7 @@
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F14" s="34">
         <v>13.0</v>
@@ -3925,7 +3955,10 @@
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="F15" s="34">
         <v>14.0</v>
@@ -3933,7 +3966,7 @@
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F16" s="34">
         <v>15.0</v>
@@ -3941,7 +3974,10 @@
     </row>
     <row r="17">
       <c r="A17" s="34" t="s">
-        <v>258</v>
+        <v>263</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="F17" s="34">
         <v>16.0</v>
